--- a/Code/NIFTY/PUTchart.xlsx
+++ b/Code/NIFTY/PUTchart.xlsx
@@ -22,7 +22,7 @@
     <t>03-Jan-2017, NIFTY 8192.25</t>
   </si>
   <si>
-    <t>04-Jan-2017, NIFTY 8192.25</t>
+    <t>04-Jan-2017, NIFTY 8190.50</t>
   </si>
 </sst>
 </file>
@@ -111,15 +111,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$2:$B$9</f>
+              <f>Sheet!$B$2:$B$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="1"/>
@@ -144,15 +143,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$2:$C$9</f>
+              <f>Sheet!$C$2:$C$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="2"/>
@@ -177,15 +175,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$D$2:$D$9</f>
+              <f>Sheet!$D$2:$D$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="3"/>
@@ -210,15 +207,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$E$2:$E$9</f>
+              <f>Sheet!$E$2:$E$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="4"/>
@@ -243,15 +239,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$F$2:$F$9</f>
+              <f>Sheet!$F$2:$F$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="5"/>
@@ -276,15 +271,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$G$2:$G$9</f>
+              <f>Sheet!$G$2:$G$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="6"/>
@@ -309,15 +303,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$H$2:$H$9</f>
+              <f>Sheet!$H$2:$H$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="7"/>
@@ -342,15 +335,14 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$9</f>
+              <f>Sheet!$A$2:$A$3</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$I$2:$I$9</f>
+              <f>Sheet!$I$2:$I$3</f>
             </numRef>
           </val>
-          <smooth val="1"/>
         </ser>
         <axId val="500"/>
         <axId val="100"/>
@@ -412,12 +404,12 @@
 <wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
-      <col>10</col>
+      <col>0</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="9000000" cy="4320000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -724,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,202 +787,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>57.1</v>
+        <v>303</v>
       </c>
       <c r="C3" t="n">
-        <v>112.75</v>
+        <v>329.4</v>
       </c>
       <c r="D3" t="n">
-        <v>320</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>345.55</v>
+        <v>132.3</v>
       </c>
       <c r="F3" t="n">
-        <v>83</v>
+        <v>689.95</v>
       </c>
       <c r="G3" t="n">
-        <v>142.85</v>
+        <v>661.55</v>
       </c>
       <c r="H3" t="n">
-        <v>705</v>
+        <v>492.2</v>
       </c>
       <c r="I3" t="n">
-        <v>673.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>320</v>
-      </c>
-      <c r="C4" t="n">
-        <v>345.55</v>
-      </c>
-      <c r="D4" t="n">
-        <v>83</v>
-      </c>
-      <c r="E4" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="F4" t="n">
-        <v>705</v>
-      </c>
-      <c r="G4" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>501.15</v>
-      </c>
-      <c r="I4" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>320</v>
-      </c>
-      <c r="C5" t="n">
-        <v>345.55</v>
-      </c>
-      <c r="D5" t="n">
-        <v>83</v>
-      </c>
-      <c r="E5" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>705</v>
-      </c>
-      <c r="G5" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="H5" t="n">
-        <v>501.15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>320</v>
-      </c>
-      <c r="C6" t="n">
-        <v>345.55</v>
-      </c>
-      <c r="D6" t="n">
-        <v>83</v>
-      </c>
-      <c r="E6" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="F6" t="n">
-        <v>705</v>
-      </c>
-      <c r="G6" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>501.15</v>
-      </c>
-      <c r="I6" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="n">
-        <v>320</v>
-      </c>
-      <c r="C7" t="n">
-        <v>345.55</v>
-      </c>
-      <c r="D7" t="n">
-        <v>83</v>
-      </c>
-      <c r="E7" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="F7" t="n">
-        <v>705</v>
-      </c>
-      <c r="G7" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>501.15</v>
-      </c>
-      <c r="I7" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="n">
-        <v>320</v>
-      </c>
-      <c r="C8" t="n">
-        <v>345.55</v>
-      </c>
-      <c r="D8" t="n">
-        <v>83</v>
-      </c>
-      <c r="E8" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="F8" t="n">
-        <v>705</v>
-      </c>
-      <c r="G8" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="H8" t="n">
-        <v>501.15</v>
-      </c>
-      <c r="I8" t="n">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="n">
-        <v>320</v>
-      </c>
-      <c r="C9" t="n">
-        <v>345.55</v>
-      </c>
-      <c r="D9" t="n">
-        <v>83</v>
-      </c>
-      <c r="E9" t="n">
-        <v>142.85</v>
-      </c>
-      <c r="F9" t="n">
-        <v>705</v>
-      </c>
-      <c r="G9" t="n">
-        <v>673.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>501.15</v>
-      </c>
-      <c r="I9" t="n">
-        <v>490</v>
+        <v>481.9</v>
       </c>
     </row>
   </sheetData>

--- a/Code/NIFTY/PUTchart.xlsx
+++ b/Code/NIFTY/PUTchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Strike Price</t>
   </si>
@@ -22,7 +22,16 @@
     <t>03-Jan-2017, NIFTY 8192.25</t>
   </si>
   <si>
-    <t>04-Jan-2017, NIFTY 8190.50</t>
+    <t>05-Jan-2017, NIFTY 8190.50</t>
+  </si>
+  <si>
+    <t>07-Jan-2017, NIFTY 8243.80</t>
+  </si>
+  <si>
+    <t>11-Jan-2017, NIFTY 8380.65</t>
+  </si>
+  <si>
+    <t>13-Jan-2017, NIFTY 8400.35</t>
   </si>
 </sst>
 </file>
@@ -111,12 +120,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$2:$B$3</f>
+              <f>Sheet!$B$2:$B$8</f>
             </numRef>
           </val>
         </ser>
@@ -143,12 +152,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$2:$C$3</f>
+              <f>Sheet!$C$2:$C$8</f>
             </numRef>
           </val>
         </ser>
@@ -175,12 +184,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$D$2:$D$3</f>
+              <f>Sheet!$D$2:$D$8</f>
             </numRef>
           </val>
         </ser>
@@ -207,12 +216,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$E$2:$E$3</f>
+              <f>Sheet!$E$2:$E$8</f>
             </numRef>
           </val>
         </ser>
@@ -239,12 +248,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$F$2:$F$3</f>
+              <f>Sheet!$F$2:$F$8</f>
             </numRef>
           </val>
         </ser>
@@ -271,12 +280,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$G$2:$G$3</f>
+              <f>Sheet!$G$2:$G$8</f>
             </numRef>
           </val>
         </ser>
@@ -303,12 +312,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$H$2:$H$3</f>
+              <f>Sheet!$H$2:$H$8</f>
             </numRef>
           </val>
         </ser>
@@ -335,12 +344,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$3</f>
+              <f>Sheet!$A$2:$A$8</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$I$2:$I$3</f>
+              <f>Sheet!$I$2:$I$8</f>
             </numRef>
           </val>
         </ser>
@@ -716,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,6 +820,151 @@
         <v>481.9</v>
       </c>
     </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>245</v>
+      </c>
+      <c r="C4" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>629.75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>427.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>419.55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>245</v>
+      </c>
+      <c r="C5" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="F5" t="n">
+        <v>629.75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>596.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>427.9</v>
+      </c>
+      <c r="I5" t="n">
+        <v>419.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>143.7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>199.45</v>
+      </c>
+      <c r="D6" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>63.35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>515</v>
+      </c>
+      <c r="G6" t="n">
+        <v>494.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>316.7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="C7" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E7" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>483.4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>455.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>288.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>110.55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>52.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>483.4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>455.45</v>
+      </c>
+      <c r="H8" t="n">
+        <v>284.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>288.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>

--- a/Code/NIFTY/PUTchart.xlsx
+++ b/Code/NIFTY/PUTchart.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>Strike Price</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>13-Jan-2017, NIFTY 8400.35</t>
+  </si>
+  <si>
+    <t>17-Jan-2017, NIFTY 8398.00</t>
   </si>
 </sst>
 </file>
@@ -120,12 +123,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$B$2:$B$8</f>
+              <f>Sheet!$B$2:$B$9</f>
             </numRef>
           </val>
         </ser>
@@ -152,12 +155,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$C$2:$C$8</f>
+              <f>Sheet!$C$2:$C$9</f>
             </numRef>
           </val>
         </ser>
@@ -184,12 +187,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$D$2:$D$8</f>
+              <f>Sheet!$D$2:$D$9</f>
             </numRef>
           </val>
         </ser>
@@ -216,12 +219,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$E$2:$E$8</f>
+              <f>Sheet!$E$2:$E$9</f>
             </numRef>
           </val>
         </ser>
@@ -248,12 +251,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$F$2:$F$8</f>
+              <f>Sheet!$F$2:$F$9</f>
             </numRef>
           </val>
         </ser>
@@ -280,12 +283,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$G$2:$G$8</f>
+              <f>Sheet!$G$2:$G$9</f>
             </numRef>
           </val>
         </ser>
@@ -312,12 +315,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$H$2:$H$8</f>
+              <f>Sheet!$H$2:$H$9</f>
             </numRef>
           </val>
         </ser>
@@ -344,12 +347,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>Sheet!$A$2:$A$8</f>
+              <f>Sheet!$A$2:$A$9</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>Sheet!$I$2:$I$8</f>
+              <f>Sheet!$I$2:$I$9</f>
             </numRef>
           </val>
         </ser>
@@ -725,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +968,35 @@
         <v>288.9</v>
       </c>
     </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="n">
+        <v>117.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>186</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>491.75</v>
+      </c>
+      <c r="G9" t="n">
+        <v>473.75</v>
+      </c>
+      <c r="H9" t="n">
+        <v>299.25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>306.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <drawing r:id="rId1"/>
